--- a/wash_P/EGY.xlsx
+++ b/wash_P/EGY.xlsx
@@ -28444,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="KQ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR9" t="n">
         <v>0</v>
@@ -28453,7 +28453,7 @@
         <v>0</v>
       </c>
       <c r="KT9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU9" t="n">
         <v>0</v>
@@ -65440,7 +65440,7 @@
         <v>0</v>
       </c>
       <c r="DS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT21" t="n">
         <v>0</v>
@@ -68568,7 +68568,7 @@
         <v>0</v>
       </c>
       <c r="DS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT22" t="n">
         <v>0</v>
@@ -69903,10 +69903,10 @@
         <v>0</v>
       </c>
       <c r="UV22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UW22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UX22" t="n">
         <v>0</v>
@@ -73031,10 +73031,10 @@
         <v>0</v>
       </c>
       <c r="UV23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UW23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UX23" t="n">
         <v>0</v>
@@ -91805,7 +91805,7 @@
         <v>0</v>
       </c>
       <c r="UX29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="UY29" t="n">
         <v>0</v>
